--- a/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
@@ -149,7 +149,11 @@
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
+  <cols>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">

--- a/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
@@ -177,16 +177,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>510.1449275362318</v>
+        <v>935.0903682874737</v>
       </c>
       <c r="C2" t="n">
         <v>434.78260869565213</v>
       </c>
       <c r="D2" t="n">
-        <v>2.550724637681159</v>
+        <v>4.6754518414373685</v>
       </c>
       <c r="E2" t="n">
-        <v>3.542673107890499</v>
+        <v>6.493683113107456</v>
       </c>
     </row>
     <row r="3">
@@ -194,16 +194,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>382.60869565217394</v>
+        <v>701.3177762156054</v>
       </c>
       <c r="C3" t="n">
         <v>326.0869565217391</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9130434782608696</v>
+        <v>3.506588881078027</v>
       </c>
       <c r="E3" t="n">
-        <v>2.6570048309178746</v>
+        <v>4.870262334830593</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +211,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>68.01932367149759</v>
+        <v>124.67871577166318</v>
       </c>
       <c r="C4" t="n">
         <v>57.971014492753625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34009661835748795</v>
+        <v>0.6233935788583159</v>
       </c>
       <c r="E4" t="n">
-        <v>0.47235641438539994</v>
+        <v>0.8658244150809943</v>
       </c>
     </row>
     <row r="5">
@@ -228,16 +228,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>960.7729468599032</v>
+        <v>1761.086860274742</v>
       </c>
       <c r="C5" t="n">
         <v>818.8405797101448</v>
       </c>
       <c r="D5" t="n">
-        <v>4.803864734299516</v>
+        <v>8.80543430137371</v>
       </c>
       <c r="E5" t="n">
-        <v>6.672034353193773</v>
+        <v>12.229769863019042</v>
       </c>
     </row>
     <row r="6"/>
@@ -246,16 +246,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>140.8</v>
+        <v>258.08494164734276</v>
       </c>
       <c r="C7" t="n">
         <v>120.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7040000000000001</v>
+        <v>1.2904247082367137</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9777777777777779</v>
+        <v>1.7922565392176582</v>
       </c>
     </row>
     <row r="8">
@@ -263,16 +263,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>23.46666666666667</v>
+        <v>43.014156941223796</v>
       </c>
       <c r="C8" t="n">
         <v>20.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11733333333333335</v>
+        <v>0.21507078470611898</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16296296296296298</v>
+        <v>0.29870942320294297</v>
       </c>
     </row>
     <row r="9">
@@ -280,16 +280,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>164.26666666666668</v>
+        <v>301.09909858856656</v>
       </c>
       <c r="C9" t="n">
         <v>140.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8213333333333334</v>
+        <v>1.5054954929428328</v>
       </c>
       <c r="E9" t="n">
-        <v>1.1407407407407408</v>
+        <v>2.090965962420601</v>
       </c>
     </row>
     <row r="10"/>
@@ -298,16 +298,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>160.61346306585074</v>
+        <v>276.3110414475657</v>
       </c>
       <c r="C11" t="n">
-        <v>136.88647420385007</v>
+        <v>128.4744656626086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8030673153292537</v>
+        <v>1.3815552072378283</v>
       </c>
       <c r="E11" t="n">
-        <v>1.11537127129063</v>
+        <v>1.9188266767192061</v>
       </c>
     </row>
     <row r="12"/>
@@ -316,16 +316,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>171.5999999999999</v>
+        <v>171.25623456985784</v>
       </c>
       <c r="C13" t="n">
-        <v>146.24999999999991</v>
+        <v>79.62784661983216</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8579999999999995</v>
+        <v>0.8562811728492892</v>
       </c>
       <c r="E13" t="n">
-        <v>1.191666666666666</v>
+        <v>1.1892794067351238</v>
       </c>
     </row>
     <row r="14">
@@ -401,16 +401,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>108.96599999999992</v>
+        <v>108.74770895185972</v>
       </c>
       <c r="C18" t="n">
-        <v>92.86874999999993</v>
+        <v>50.56368260359341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5448299999999996</v>
+        <v>0.5437385447592986</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7567083333333328</v>
+        <v>0.7551924232768036</v>
       </c>
     </row>
     <row r="19"/>
@@ -419,16 +419,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>300.9691904811671</v>
+        <v>395.5332959134297</v>
       </c>
       <c r="C20" t="n">
-        <v>256.50783279644924</v>
+        <v>183.9084264531334</v>
       </c>
       <c r="D20" t="n">
-        <v>1.5048459524058355</v>
+        <v>1.9776664795671484</v>
       </c>
       <c r="E20" t="n">
-        <v>2.0900638227858828</v>
+        <v>2.7467589993988173</v>
       </c>
     </row>
     <row r="21">
@@ -436,16 +436,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>174.95133333333334</v>
+        <v>282.6580047461431</v>
       </c>
       <c r="C21" t="n">
-        <v>149.10625000000002</v>
+        <v>131.42557001983226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8747566666666666</v>
+        <v>1.4132900237307155</v>
       </c>
       <c r="E21" t="n">
-        <v>1.214939814814815</v>
+        <v>1.9629028107371047</v>
       </c>
     </row>
     <row r="22">
@@ -453,16 +453,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>565.0316609623342</v>
+        <v>760.2117748158623</v>
       </c>
       <c r="C22" t="n">
-        <v>481.56107468380753</v>
+        <v>353.4704984940865</v>
       </c>
       <c r="D22" t="n">
-        <v>2.825158304811671</v>
+        <v>3.8010588740793114</v>
       </c>
       <c r="E22" t="n">
-        <v>3.9238309789050985</v>
+        <v>5.279248436221266</v>
       </c>
     </row>
     <row r="23"/>
@@ -472,16 +472,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1959.6507375547546</v>
+        <v>3207.456484078597</v>
       </c>
       <c r="C25" t="n">
-        <v>1670.1568785978022</v>
+        <v>1491.3492264704337</v>
       </c>
       <c r="D25" t="n">
-        <v>9.798253687773773</v>
+        <v>16.037282420392984</v>
       </c>
       <c r="E25" t="n">
-        <v>13.608685677463574</v>
+        <v>22.274003361656924</v>
       </c>
     </row>
     <row r="26"/>
@@ -490,16 +490,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>998.8777906948515</v>
+        <v>1446.3696238038542</v>
       </c>
       <c r="C27" t="n">
-        <v>851.3162988876575</v>
+        <v>672.5086467602885</v>
       </c>
       <c r="D27" t="n">
-        <v>4.994388953474258</v>
+        <v>7.231848119019271</v>
       </c>
       <c r="E27" t="n">
-        <v>6.9366513242698025</v>
+        <v>10.044233498637876</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
@@ -177,16 +177,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>935.0903682874737</v>
+        <v>935.0898621313619</v>
       </c>
       <c r="C2" t="n">
         <v>434.78260869565213</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6754518414373685</v>
+        <v>4.675449310656809</v>
       </c>
       <c r="E2" t="n">
-        <v>6.493683113107456</v>
+        <v>6.493679598134458</v>
       </c>
     </row>
     <row r="3">
@@ -194,16 +194,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>701.3177762156054</v>
+        <v>701.3173965985216</v>
       </c>
       <c r="C3" t="n">
         <v>326.0869565217391</v>
       </c>
       <c r="D3" t="n">
-        <v>3.506588881078027</v>
+        <v>3.5065869829926077</v>
       </c>
       <c r="E3" t="n">
-        <v>4.870262334830593</v>
+        <v>4.870259698600844</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +211,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>124.67871577166318</v>
+        <v>124.6786482841816</v>
       </c>
       <c r="C4" t="n">
         <v>57.971014492753625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6233935788583159</v>
+        <v>0.623393241420908</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8658244150809943</v>
+        <v>0.8658239464179278</v>
       </c>
     </row>
     <row r="5">
@@ -228,16 +228,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1761.086860274742</v>
+        <v>1761.0859070140648</v>
       </c>
       <c r="C5" t="n">
         <v>818.8405797101448</v>
       </c>
       <c r="D5" t="n">
-        <v>8.80543430137371</v>
+        <v>8.805429535070324</v>
       </c>
       <c r="E5" t="n">
-        <v>12.229769863019042</v>
+        <v>12.22976324315323</v>
       </c>
     </row>
     <row r="6"/>
@@ -246,16 +246,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>258.08494164734276</v>
+        <v>258.0848019482559</v>
       </c>
       <c r="C7" t="n">
         <v>120.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2904247082367137</v>
+        <v>1.2904240097412796</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7922565392176582</v>
+        <v>1.7922555690851105</v>
       </c>
     </row>
     <row r="8">
@@ -263,16 +263,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>43.014156941223796</v>
+        <v>43.01413365804265</v>
       </c>
       <c r="C8" t="n">
         <v>20.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21507078470611898</v>
+        <v>0.21507066829021326</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29870942320294297</v>
+        <v>0.2987092615141851</v>
       </c>
     </row>
     <row r="9">
@@ -280,16 +280,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>301.09909858856656</v>
+        <v>301.0989356062986</v>
       </c>
       <c r="C9" t="n">
         <v>140.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5054954929428328</v>
+        <v>1.505494678031493</v>
       </c>
       <c r="E9" t="n">
-        <v>2.090965962420601</v>
+        <v>2.0909648305992956</v>
       </c>
     </row>
     <row r="10"/>
@@ -298,16 +298,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>276.3110414475657</v>
+        <v>276.30763791891854</v>
       </c>
       <c r="C11" t="n">
-        <v>128.4744656626086</v>
+        <v>128.47295268831033</v>
       </c>
       <c r="D11" t="n">
-        <v>1.3815552072378283</v>
+        <v>1.3815381895945926</v>
       </c>
       <c r="E11" t="n">
-        <v>1.9188266767192061</v>
+        <v>1.918803041103601</v>
       </c>
     </row>
     <row r="12"/>
@@ -316,16 +316,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>171.25623456985784</v>
+        <v>171.2523556921675</v>
       </c>
       <c r="C13" t="n">
-        <v>79.62784661983216</v>
+        <v>79.62608618534725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8562811728492892</v>
+        <v>0.8562617784608375</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1892794067351238</v>
+        <v>1.1892524700844964</v>
       </c>
     </row>
     <row r="14">
@@ -401,16 +401,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>108.74770895185972</v>
+        <v>108.74524586452637</v>
       </c>
       <c r="C18" t="n">
-        <v>50.56368260359341</v>
+        <v>50.5625647276955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5437385447592986</v>
+        <v>0.5437262293226318</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7551924232768036</v>
+        <v>0.7551753185036554</v>
       </c>
     </row>
     <row r="19"/>
@@ -419,16 +419,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>395.5332959134297</v>
+        <v>395.5267444413777</v>
       </c>
       <c r="C20" t="n">
-        <v>183.9084264531334</v>
+        <v>183.90547980613496</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9776664795671484</v>
+        <v>1.9776337222068885</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7467589993988173</v>
+        <v>2.7467135030651226</v>
       </c>
     </row>
     <row r="21">
@@ -436,16 +436,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>282.6580047461431</v>
+        <v>282.65787645581497</v>
       </c>
       <c r="C21" t="n">
-        <v>131.42557001983226</v>
+        <v>131.42558150905103</v>
       </c>
       <c r="D21" t="n">
-        <v>1.4132900237307155</v>
+        <v>1.4132893822790749</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9629028107371047</v>
+        <v>1.9629019198320483</v>
       </c>
     </row>
     <row r="22">
@@ -453,16 +453,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>760.2117748158623</v>
+        <v>760.1986646632856</v>
       </c>
       <c r="C22" t="n">
-        <v>353.4704984940865</v>
+        <v>353.4645940828549</v>
       </c>
       <c r="D22" t="n">
-        <v>3.8010588740793114</v>
+        <v>3.800993323316428</v>
       </c>
       <c r="E22" t="n">
-        <v>5.279248436221266</v>
+        <v>5.279157393495039</v>
       </c>
     </row>
     <row r="23"/>
@@ -472,16 +472,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>3207.456484078597</v>
+        <v>3207.4363910670936</v>
       </c>
       <c r="C25" t="n">
-        <v>1491.3492264704337</v>
+        <v>1491.3406912090054</v>
       </c>
       <c r="D25" t="n">
-        <v>16.037282420392984</v>
+        <v>16.03718195533547</v>
       </c>
       <c r="E25" t="n">
-        <v>22.274003361656924</v>
+        <v>22.27386382685482</v>
       </c>
     </row>
     <row r="26"/>
@@ -490,16 +490,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>1446.3696238038542</v>
+        <v>1446.350484053029</v>
       </c>
       <c r="C27" t="n">
-        <v>672.5086467602885</v>
+        <v>672.5001114988607</v>
       </c>
       <c r="D27" t="n">
-        <v>7.231848119019271</v>
+        <v>7.2317524202651455</v>
       </c>
       <c r="E27" t="n">
-        <v>10.044233498637876</v>
+        <v>10.04410058370159</v>
       </c>
     </row>
   </sheetData>

--- a/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/COSTS/Costs.xlsx
@@ -177,16 +177,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>917.2011431723992</v>
+        <v>920.8819664592633</v>
       </c>
       <c r="C2" t="n">
         <v>434.78260869565213</v>
       </c>
       <c r="D2" t="n">
-        <v>4.586005715861996</v>
+        <v>4.604409832296318</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3694523831416605</v>
+        <v>6.395013655967108</v>
       </c>
     </row>
     <row r="3">
@@ -194,16 +194,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>687.9008573792995</v>
+        <v>690.6614748444475</v>
       </c>
       <c r="C3" t="n">
         <v>326.0869565217391</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4395042868964976</v>
+        <v>3.4533073742222387</v>
       </c>
       <c r="E3" t="n">
-        <v>4.7770892873562465</v>
+        <v>4.7962602419753315</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +211,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>122.29348575631991</v>
+        <v>122.78426219456844</v>
       </c>
       <c r="C4" t="n">
         <v>57.971014492753625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6114674287815995</v>
+        <v>0.6139213109728424</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8492603177522215</v>
+        <v>0.8526684874622811</v>
       </c>
     </row>
     <row r="5">
@@ -228,16 +228,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>1727.3954863080182</v>
+        <v>1734.3277034982789</v>
       </c>
       <c r="C5" t="n">
         <v>818.8405797101448</v>
       </c>
       <c r="D5" t="n">
-        <v>8.63697743154009</v>
+        <v>8.671638517491397</v>
       </c>
       <c r="E5" t="n">
-        <v>11.995801988250129</v>
+        <v>12.043942385404717</v>
       </c>
     </row>
     <row r="6"/>
@@ -246,16 +246,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>253.1475155155822</v>
+        <v>254.16342274275667</v>
       </c>
       <c r="C7" t="n">
         <v>120.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.265737577577911</v>
+        <v>1.2708171137137836</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7579688577470987</v>
+        <v>1.765023769046922</v>
       </c>
     </row>
     <row r="8">
@@ -263,16 +263,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>42.19125258593037</v>
+        <v>84.72114091425223</v>
       </c>
       <c r="C8" t="n">
-        <v>20.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21095626292965186</v>
+        <v>0.4236057045712613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.29299480962451646</v>
+        <v>0.5883412563489739</v>
       </c>
     </row>
     <row r="9">
@@ -280,16 +280,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>295.3387681015126</v>
+        <v>338.8845636570089</v>
       </c>
       <c r="C9" t="n">
-        <v>140.0</v>
+        <v>160.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.476693840507563</v>
+        <v>1.6944228182850452</v>
       </c>
       <c r="E9" t="n">
-        <v>2.050963667371615</v>
+        <v>2.3533650253958958</v>
       </c>
     </row>
     <row r="10"/>
@@ -298,16 +298,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>247.98186953053124</v>
+        <v>252.828738682599</v>
       </c>
       <c r="C11" t="n">
-        <v>117.55131897327288</v>
+        <v>119.36984604043116</v>
       </c>
       <c r="D11" t="n">
-        <v>1.2399093476526561</v>
+        <v>1.2641436934129955</v>
       </c>
       <c r="E11" t="n">
-        <v>1.7220963161842446</v>
+        <v>1.7557551297402716</v>
       </c>
     </row>
     <row r="12"/>
@@ -316,16 +316,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>172.10871875706505</v>
+        <v>172.87210948661146</v>
       </c>
       <c r="C13" t="n">
-        <v>81.58502448180863</v>
+        <v>81.6193491358094</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8605435937853252</v>
+        <v>0.8643605474330576</v>
       </c>
       <c r="E13" t="n">
-        <v>1.1951994358129516</v>
+        <v>1.200500760323691</v>
       </c>
     </row>
     <row r="14">
@@ -401,16 +401,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>109.28903641073629</v>
+        <v>109.77378952399826</v>
       </c>
       <c r="C18" t="n">
-        <v>51.80649054594848</v>
+        <v>51.82828670123896</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5464451820536814</v>
+        <v>0.5488689476199915</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7589516417412242</v>
+        <v>0.7623179828055437</v>
       </c>
     </row>
     <row r="19"/>
@@ -419,16 +419,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>392.5497551831184</v>
+        <v>394.70554059765806</v>
       </c>
       <c r="C20" t="n">
-        <v>186.08110976729952</v>
+        <v>186.3551582701874</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9627487759155922</v>
+        <v>1.973527702988291</v>
       </c>
       <c r="E20" t="n">
-        <v>2.7260399665494335</v>
+        <v>2.7410106985948484</v>
       </c>
     </row>
     <row r="21">
@@ -436,16 +436,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>278.1238017484763</v>
+        <v>279.0567432187649</v>
       </c>
       <c r="C21" t="n">
-        <v>131.83955663891476</v>
+        <v>131.75306196653003</v>
       </c>
       <c r="D21" t="n">
-        <v>1.3906190087423815</v>
+        <v>1.3952837160938247</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9314152899199744</v>
+        <v>1.9378940501303121</v>
       </c>
     </row>
     <row r="22">
@@ -453,16 +453,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>753.989922166841</v>
+        <v>758.3539138088424</v>
       </c>
       <c r="C22" t="n">
-        <v>357.41528205696176</v>
+        <v>358.04707331615657</v>
       </c>
       <c r="D22" t="n">
-        <v>3.769949610834205</v>
+        <v>3.791769569044213</v>
       </c>
       <c r="E22" t="n">
-        <v>5.236041126158618</v>
+        <v>5.2663466236725185</v>
       </c>
     </row>
     <row r="23"/>
@@ -472,16 +472,16 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>3133.9950825176393</v>
+        <v>3194.168709170728</v>
       </c>
       <c r="C25" t="n">
-        <v>1485.6136712863279</v>
+        <v>1508.0857857679716</v>
       </c>
       <c r="D25" t="n">
-        <v>15.669975412588196</v>
+        <v>15.970843545853645</v>
       </c>
       <c r="E25" t="n">
-        <v>21.763854739705828</v>
+        <v>22.18172714701895</v>
       </c>
     </row>
     <row r="26"/>
@@ -490,16 +490,16 @@
         <v>23</v>
       </c>
       <c r="B27" t="n">
-        <v>1406.5995962096213</v>
+        <v>1459.8410056724488</v>
       </c>
       <c r="C27" t="n">
-        <v>666.7730915761832</v>
+        <v>689.2452060578267</v>
       </c>
       <c r="D27" t="n">
-        <v>7.032997981048107</v>
+        <v>7.299205028362246</v>
       </c>
       <c r="E27" t="n">
-        <v>9.768052751455704</v>
+        <v>10.137784761614231</v>
       </c>
     </row>
   </sheetData>
